--- a/biology/Zoologie/Devonotarbus_hombachensis/Devonotarbus_hombachensis.xlsx
+++ b/biology/Zoologie/Devonotarbus_hombachensis/Devonotarbus_hombachensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Devonotarbus, Devonotarbidae
 Devonotarbus hombachensis, unique représentant du genre fossile Devonotarbus, et de la famille fossile des Devonotarbidae, est une espèce fossile d'arachnides de l'ordre des Phalangiotarbida.
@@ -512,12 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Devonotarbus hombachensis et le genre Devonotarbus sont décrits en 2005 par Markus Poschmann (d), Lyall I. Anderson (d) et Jason Andrew Dunlop[1],[2],[3].
-La famille des Devonotarbidae est créée en 2012 par Markus Poschmann et Jason Andrew Dunlop[4],[5] qui l'a classe dans l'ordre des Phalangiotarbida, ce qui est confirmé en 2013 par J. A. Dunlop et al.[6],[5].
-Fossiles
-Selon Paleobiology Database en 2023, six collections sont référencées du Dévonien en Allemagne, soit une présence attestée de l'Emsien inférieur au Praguien du Dévonien inférieur, ou encore de 409,1 à 407,6 Ma avant notre ère[2],[3],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Devonotarbus hombachensis et le genre Devonotarbus sont décrits en 2005 par Markus Poschmann (d), Lyall I. Anderson (d) et Jason Andrew Dunlop.
+La famille des Devonotarbidae est créée en 2012 par Markus Poschmann et Jason Andrew Dunlop, qui l'a classe dans l'ordre des Phalangiotarbida, ce qui est confirmé en 2013 par J. A. Dunlop et al.,.
 </t>
         </is>
       </c>
@@ -543,10 +555,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, six collections sont référencées du Dévonien en Allemagne, soit une présence attestée de l'Emsien inférieur au Praguien du Dévonien inférieur, ou encore de 409,1 à 407,6 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Devonotarbus_hombachensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Devonotarbus_hombachensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
